--- a/dokumentaciok/adatok.xlsx
+++ b/dokumentaciok/adatok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Suli\Projektmunka\sorbaRendezes\dokumentaciok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5DD43C-58F8-4B7A-A3E1-4966553886CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C351FF9-5A0B-4D41-AB65-1C9E9B5B50B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{2BF08F55-0920-46C7-8FB4-3D2C5D80233D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12288" windowHeight="13776" xr2:uid="{2BF08F55-0920-46C7-8FB4-3D2C5D80233D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
   <si>
     <t>Adatok száma</t>
   </si>
@@ -64,6 +64,9 @@
   <si>
     <t>Idő (ms)
 (10 tizedesjegyre kerekítve)</t>
+  </si>
+  <si>
+    <t>Beszúrásos rendezés</t>
   </si>
 </sst>
 </file>
@@ -631,6 +634,156 @@
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,163 +794,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E015D9-583A-4023-8353-48201C4E59A9}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,1438 +1155,1813 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="17">
         <v>10</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25">
         <f>AVERAGE(E2:F6)</f>
         <v>1.9999998799999998E-2</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="15">
         <v>10</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="15">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24">
+      <c r="B4" s="16"/>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="1">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="15">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>10</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="17">
         <v>100</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
         <f>AVERAGE(E7:F11)</f>
         <v>4.000000058E-2</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="15">
         <v>100</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="15">
         <v>100</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="15">
         <v>100</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24">
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1">
         <v>0.10000000890000001</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>100</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34">
-        <v>0</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="17">
         <v>1000</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
         <f t="shared" ref="I12" si="0">AVERAGE(E12:F16)</f>
         <v>1.0200000017999999</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="15">
         <v>1000</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24">
+      <c r="B13" s="16"/>
+      <c r="C13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="15">
         <v>1000</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24">
+      <c r="B14" s="16"/>
+      <c r="C14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="1">
         <v>1.200000003</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="15">
         <v>1000</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24">
+      <c r="B15" s="16"/>
+      <c r="C15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>1000</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35">
         <v>0.90000000599999996</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="17">
         <v>10000</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21">
         <v>113.400000006</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="H17" s="24"/>
+      <c r="I17" s="25">
         <f t="shared" ref="I17" si="1">AVERAGE(E17:F21)</f>
         <v>86.940000006560012</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="15">
         <v>10000</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+      <c r="B18" s="16"/>
+      <c r="C18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="1">
         <v>104.5</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="15">
         <v>10000</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+      <c r="B19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1">
         <v>73.600000008899997</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="15">
         <v>10000</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24">
+      <c r="B20" s="16"/>
+      <c r="C20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="1">
         <v>69.800000011899996</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40">
+      <c r="A21" s="3">
         <v>10000</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
         <v>73.400000005999999</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48">
+      <c r="A22" s="39">
         <v>10</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52">
-        <v>0</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43">
+        <v>0</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="18">
+      <c r="H22" s="46"/>
+      <c r="I22" s="25">
         <f t="shared" ref="I22" si="2">AVERAGE(E22:F26)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="15">
         <v>10</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="15">
         <v>10</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="15">
         <v>10</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>10</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48">
+      <c r="A27" s="39">
         <v>100</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="14">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="21">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="18">
+      <c r="H27" s="46"/>
+      <c r="I27" s="25">
         <f t="shared" ref="I27" si="3">AVERAGE(E27:F31)</f>
         <v>4.0000000600000002E-2</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="15">
         <v>100</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24">
-        <v>0</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+      <c r="A29" s="15">
         <v>100</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24">
-        <v>0</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="A30" s="15">
         <v>100</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24">
-        <v>0</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>100</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="17">
         <v>1000</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21">
         <v>1.299999997</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18">
+      <c r="H32" s="24"/>
+      <c r="I32" s="25">
         <f t="shared" ref="I32" si="4">AVERAGE(E32:F36)</f>
         <v>1.1599999993800001</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="A33" s="15">
         <v>1000</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24">
+      <c r="B33" s="16"/>
+      <c r="C33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="1">
         <v>1.099999994</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="A34" s="15">
         <v>1000</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24">
+      <c r="B34" s="16"/>
+      <c r="C34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="1">
         <v>1.1000000088999999</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20">
+      <c r="A35" s="15">
         <v>1000</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24">
+      <c r="B35" s="16"/>
+      <c r="C35" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30">
+      <c r="A36" s="31">
         <v>1000</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35">
         <v>1.299999997</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="17">
         <v>10000</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21">
         <v>62.700000003</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16" t="s">
+      <c r="F37" s="22"/>
+      <c r="G37" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18">
+      <c r="H37" s="24"/>
+      <c r="I37" s="25">
         <f t="shared" ref="I37" si="5">AVERAGE(E37:F41)</f>
         <v>61.280000001179999</v>
       </c>
-      <c r="J37" s="19"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
+      <c r="A38" s="15">
         <v>10000</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24">
+      <c r="B38" s="16"/>
+      <c r="C38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="1">
         <v>64</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
+      <c r="A39" s="15">
         <v>10000</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24">
+      <c r="B39" s="16"/>
+      <c r="C39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="1">
         <v>62.100000008899997</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="20">
+      <c r="A40" s="15">
         <v>10000</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24">
+      <c r="B40" s="16"/>
+      <c r="C40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="1">
         <v>58.299999997</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="40">
+      <c r="A41" s="3">
         <v>10000</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7">
         <v>59.299999997</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
+      <c r="A42" s="39">
         <v>10</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="18">
+      <c r="H42" s="46"/>
+      <c r="I42" s="25">
         <f t="shared" ref="I42" si="6">AVERAGE(E42:F46)</f>
         <v>1.9999998799999998E-2</v>
       </c>
-      <c r="J42" s="19"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="20">
+      <c r="A43" s="15">
         <v>10</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24">
-        <v>0</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="A44" s="15">
         <v>10</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24">
-        <v>0</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="20">
+      <c r="A45" s="15">
         <v>10</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24">
-        <v>0</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="29"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="30">
+      <c r="A46" s="31">
         <v>10</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34">
-        <v>0</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48">
+      <c r="A47" s="39">
         <v>100</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52">
-        <v>0</v>
-      </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="55"/>
-      <c r="I47" s="18">
+      <c r="H47" s="46"/>
+      <c r="I47" s="25">
         <f t="shared" ref="I47" si="7">AVERAGE(E47:F51)</f>
         <v>4.0000000600000002E-2</v>
       </c>
-      <c r="J47" s="19"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="20">
+      <c r="A48" s="15">
         <v>100</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24">
-        <v>0</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="20">
+      <c r="A49" s="15">
         <v>100</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24">
+      <c r="B49" s="16"/>
+      <c r="C49" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="1">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="20">
+      <c r="A50" s="15">
         <v>100</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24">
-        <v>0</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="30">
+      <c r="A51" s="31">
         <v>100</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34">
-        <v>0</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35">
+        <v>0</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+      <c r="A52" s="17">
         <v>1000</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="16" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18">
+      <c r="H52" s="24"/>
+      <c r="I52" s="25">
         <f t="shared" ref="I52" si="8">AVERAGE(E52:F56)</f>
         <v>1.9999998799999998E-2</v>
       </c>
-      <c r="J52" s="19"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="20">
+      <c r="A53" s="15">
         <v>1000</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24">
-        <v>0</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="20">
+      <c r="A54" s="15">
         <v>1000</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="20">
+      <c r="A55" s="15">
         <v>1000</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24">
-        <v>0</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="29"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="30">
+      <c r="A56" s="31">
         <v>1000</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34">
-        <v>0</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35">
+        <v>0</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="A57" s="17">
         <v>10000</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21">
         <v>0.59999999400000004</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="18">
+      <c r="H57" s="24"/>
+      <c r="I57" s="25">
         <f t="shared" ref="I57" si="9">AVERAGE(E57:F61)</f>
         <v>0.24000000057999998</v>
       </c>
-      <c r="J57" s="19"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="20">
+      <c r="A58" s="15">
         <v>10000</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24">
+      <c r="B58" s="16"/>
+      <c r="C58" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="1">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26" t="s">
+      <c r="F58" s="2"/>
+      <c r="G58" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="20">
+      <c r="A59" s="15">
         <v>10000</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24">
+      <c r="B59" s="16"/>
+      <c r="C59" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="1">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26" t="s">
+      <c r="F59" s="2"/>
+      <c r="G59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="27"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="20">
+      <c r="A60" s="15">
         <v>10000</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24">
+      <c r="B60" s="16"/>
+      <c r="C60" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="1">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26" t="s">
+      <c r="F60" s="2"/>
+      <c r="G60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="28"/>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="40">
+      <c r="A61" s="3">
         <v>10000</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7">
         <v>0.10000000890000001</v>
       </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="46" t="s">
+      <c r="F61" s="8"/>
+      <c r="G61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="39"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="30"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="39">
+        <v>10</v>
+      </c>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43">
+        <v>0</v>
+      </c>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="46"/>
+      <c r="I62" s="25">
+        <f t="shared" ref="I62" si="10">AVERAGE(E62:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>10</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>10</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>10</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
+    </row>
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="31">
+        <v>10</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35">
+        <v>0</v>
+      </c>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="38"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="39">
+        <v>100</v>
+      </c>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43">
+        <v>0.1000000238</v>
+      </c>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="46"/>
+      <c r="I67" s="25">
+        <f t="shared" ref="I67" si="11">AVERAGE(E67:F71)</f>
+        <v>2.0000004760000002E-2</v>
+      </c>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
+        <v>100</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
+        <v>100</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
+        <v>100</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+    </row>
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="31">
+        <v>100</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35">
+        <v>0</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="38"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
+        <v>1000</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21">
+        <v>9.9999993999999995E-2</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="24"/>
+      <c r="I72" s="25">
+        <f t="shared" ref="I72" si="12">AVERAGE(E72:F76)</f>
+        <v>0.19999999998000001</v>
+      </c>
+      <c r="J72" s="26"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="1">
+        <v>0.20000001789999999</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="28"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="1">
+        <v>0.29999998210000001</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="28"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="1">
+        <v>9.9999993999999995E-2</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="31">
+        <v>1000</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35">
+        <v>0.30000001189999997</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="38"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="30"/>
+    </row>
+    <row r="77" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21">
+        <v>10.900000006000001</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="I77" s="25">
+        <f t="shared" ref="I77" si="13">AVERAGE(E77:F81)</f>
+        <v>10.800000005979999</v>
+      </c>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="1">
+        <v>10.700000017900001</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="1">
+        <v>10.6999999881</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="28"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="1">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="28"/>
+    </row>
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7">
+        <v>10.700000017900001</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="30"/>
+    </row>
+    <row r="82" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="257">
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I52:J56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I42:J46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I32:J36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="I12:J16"/>
-    <mergeCell ref="I17:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+  <mergeCells count="341">
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J81"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J71"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -2608,6 +2986,20 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I22:J26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="I12:J16"/>
+    <mergeCell ref="I17:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
@@ -2618,57 +3010,164 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I32:J36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I47:J51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I42:J46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I57:J61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I52:J56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dokumentaciok/adatok.xlsx
+++ b/dokumentaciok/adatok.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Suli\Projektmunka\sorbaRendezes\dokumentaciok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C351FF9-5A0B-4D41-AB65-1C9E9B5B50B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ABDB09-6E68-44D8-B6F6-E753780E9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="12288" windowHeight="13776" xr2:uid="{2BF08F55-0920-46C7-8FB4-3D2C5D80233D}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{2BF08F55-0920-46C7-8FB4-3D2C5D80233D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="11">
   <si>
     <t>Adatok száma</t>
   </si>
@@ -47,26 +45,28 @@
     <t>Módszer</t>
   </si>
   <si>
+    <t>Átlag idő (ms)</t>
+  </si>
+  <si>
     <t>Javascript</t>
   </si>
   <si>
     <t>Egyszerű cserés rendezés</t>
   </si>
   <si>
+    <t>Buborékos rendezés</t>
+  </si>
+  <si>
     <t>Gyors rendezés</t>
   </si>
   <si>
-    <t>Buborékos rendezés</t>
+    <t>Beszúrásos rendezés</t>
   </si>
   <si>
-    <t>Átlag idő (ms)</t>
+    <t>C#</t>
   </si>
   <si>
-    <t>Idő (ms)
-(10 tizedesjegyre kerekítve)</t>
-  </si>
-  <si>
-    <t>Beszúrásos rendezés</t>
+    <t>Idő (ms)</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -628,160 +628,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,6 +879,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,545 +1232,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E015D9-583A-4023-8353-48201C4E59A9}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72:H72"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="49" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="48"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21">
+      <c r="B2" s="2"/>
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9">
         <f>AVERAGE(E2:F6)</f>
         <v>1.9999998799999998E-2</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>10</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1">
+      <c r="C3" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="19">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>10</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1">
+      <c r="C4" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="19">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>10</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="1">
+      <c r="C5" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>10</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="34"/>
+      <c r="C6" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="35">
         <v>0</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21">
+      <c r="B7" s="2"/>
+      <c r="C7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="5">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
         <f>AVERAGE(E7:F11)</f>
         <v>4.000000058E-2</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>100</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="1">
+      <c r="C8" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>100</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="1">
+      <c r="C9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>100</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1">
+      <c r="C10" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="19">
         <v>0.10000000890000001</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>100</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="34"/>
+      <c r="C11" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="59"/>
       <c r="E11" s="35">
         <v>0</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="1">
         <v>1000</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21">
+      <c r="B12" s="2"/>
+      <c r="C12" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9">
         <f t="shared" ref="I12" si="0">AVERAGE(E12:F16)</f>
         <v>1.0200000017999999</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>1000</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="1">
+      <c r="C13" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>1000</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="1">
+      <c r="C14" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="19">
         <v>1.200000003</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>1000</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="1">
+      <c r="C15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>1000</v>
       </c>
       <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="34"/>
+      <c r="C16" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="59"/>
       <c r="E16" s="35">
         <v>0.90000000599999996</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="38"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="1">
         <v>10000</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21">
+      <c r="B17" s="2"/>
+      <c r="C17" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="5">
         <v>113.400000006</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9">
         <f t="shared" ref="I17" si="1">AVERAGE(E17:F21)</f>
         <v>86.940000006560012</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>10000</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1">
+      <c r="C18" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="19">
         <v>104.5</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>10000</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="1">
+      <c r="C19" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="19">
         <v>73.600000008899997</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>10000</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1">
+      <c r="C20" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="19">
         <v>69.800000011899996</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="A21" s="23">
         <v>10000</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7">
+      <c r="B21" s="24"/>
+      <c r="C21" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="27">
         <v>73.400000005999999</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>10</v>
       </c>
       <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43">
+      <c r="C22" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="25">
+      <c r="H22" s="44"/>
+      <c r="I22" s="9">
         <f t="shared" ref="I22" si="2">AVERAGE(E22:F26)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>10</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="1">
+      <c r="C23" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>10</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="1">
+      <c r="C24" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="19">
         <v>0</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>10</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="1">
+      <c r="C25" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="19">
         <v>0</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="20"/>
+      <c r="G25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>10</v>
       </c>
       <c r="B26" s="32"/>
-      <c r="C26" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="34"/>
+      <c r="C26" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="59"/>
       <c r="E26" s="35">
         <v>0</v>
       </c>
@@ -1688,101 +1779,101 @@
         <v>6</v>
       </c>
       <c r="H26" s="38"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>100</v>
       </c>
       <c r="B27" s="40"/>
-      <c r="C27" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="21">
+      <c r="C27" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="5">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="45" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="25">
+      <c r="H27" s="44"/>
+      <c r="I27" s="9">
         <f t="shared" ref="I27" si="3">AVERAGE(E27:F31)</f>
         <v>4.0000000600000002E-2</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>100</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="1">
+      <c r="C28" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="19">
         <v>0</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>100</v>
       </c>
       <c r="B29" s="16"/>
-      <c r="C29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="1">
+      <c r="C29" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="19">
         <v>0</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>100</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="1">
+      <c r="C30" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="19">
         <v>0</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31">
         <v>100</v>
       </c>
       <c r="B31" s="32"/>
-      <c r="C31" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="34"/>
+      <c r="C31" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="59"/>
       <c r="E31" s="35">
         <v>0</v>
       </c>
@@ -1791,101 +1882,101 @@
         <v>6</v>
       </c>
       <c r="H31" s="38"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="1">
         <v>1000</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21">
+      <c r="B32" s="2"/>
+      <c r="C32" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="5">
         <v>1.299999997</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25">
+      <c r="H32" s="8"/>
+      <c r="I32" s="9">
         <f t="shared" ref="I32" si="4">AVERAGE(E32:F36)</f>
         <v>1.1599999993800001</v>
       </c>
-      <c r="J32" s="26"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>1000</v>
       </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="1">
+      <c r="C33" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="19">
         <v>1.099999994</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>1000</v>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="1">
+      <c r="C34" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="19">
         <v>1.1000000088999999</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="13" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="28"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>1000</v>
       </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="1">
+      <c r="C35" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>1000</v>
       </c>
       <c r="B36" s="32"/>
-      <c r="C36" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="34"/>
+      <c r="C36" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="59"/>
       <c r="E36" s="35">
         <v>1.299999997</v>
       </c>
@@ -1894,1074 +1985,2769 @@
         <v>6</v>
       </c>
       <c r="H36" s="38"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+      <c r="A37" s="1">
         <v>10000</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21">
+      <c r="B37" s="2"/>
+      <c r="C37" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="5">
         <v>62.700000003</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25">
+      <c r="H37" s="8"/>
+      <c r="I37" s="9">
         <f t="shared" ref="I37" si="5">AVERAGE(E37:F41)</f>
         <v>61.280000001179999</v>
       </c>
-      <c r="J37" s="26"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>10000</v>
       </c>
       <c r="B38" s="16"/>
-      <c r="C38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="1">
+      <c r="C38" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="19">
         <v>64</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="13" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>10000</v>
       </c>
       <c r="B39" s="16"/>
-      <c r="C39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="1">
+      <c r="C39" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="19">
         <v>62.100000008899997</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>10000</v>
       </c>
       <c r="B40" s="16"/>
-      <c r="C40" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="1">
+      <c r="C40" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="19">
         <v>58.299999997</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="13" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="A41" s="23">
         <v>10000</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7">
+      <c r="B41" s="24"/>
+      <c r="C41" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="27">
         <v>59.299999997</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="28"/>
+      <c r="G41" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>10</v>
       </c>
       <c r="B42" s="40"/>
-      <c r="C42" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43">
+      <c r="C42" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="41">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="25">
+      <c r="F42" s="42"/>
+      <c r="G42" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="9">
         <f t="shared" ref="I42" si="6">AVERAGE(E42:F46)</f>
         <v>1.9999998799999998E-2</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>10</v>
       </c>
       <c r="B43" s="16"/>
-      <c r="C43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="1">
+      <c r="C43" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>10</v>
       </c>
       <c r="B44" s="16"/>
-      <c r="C44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="1">
+      <c r="C44" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="19">
         <v>0</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>10</v>
       </c>
       <c r="B45" s="16"/>
-      <c r="C45" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="1">
+      <c r="C45" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="19">
         <v>0</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31">
         <v>10</v>
       </c>
       <c r="B46" s="32"/>
-      <c r="C46" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="34"/>
+      <c r="C46" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="59"/>
       <c r="E46" s="35">
         <v>0</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H46" s="38"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <v>100</v>
       </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43">
+      <c r="C47" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="41">
         <v>0</v>
       </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="25">
+      <c r="F47" s="42"/>
+      <c r="G47" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="9">
         <f t="shared" ref="I47" si="7">AVERAGE(E47:F51)</f>
         <v>4.0000000600000002E-2</v>
       </c>
-      <c r="J47" s="26"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>100</v>
       </c>
       <c r="B48" s="16"/>
-      <c r="C48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="1">
+      <c r="C48" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="19">
         <v>0</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>100</v>
       </c>
       <c r="B49" s="16"/>
-      <c r="C49" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="1">
+      <c r="C49" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="19">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>100</v>
       </c>
       <c r="B50" s="16"/>
-      <c r="C50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="1">
+      <c r="C50" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="19">
         <v>0</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="28"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31">
         <v>100</v>
       </c>
       <c r="B51" s="32"/>
-      <c r="C51" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="34"/>
+      <c r="C51" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="59"/>
       <c r="E51" s="35">
         <v>0</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H51" s="38"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
+      <c r="A52" s="1">
         <v>1000</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21">
+      <c r="B52" s="2"/>
+      <c r="C52" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="5">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25">
+      <c r="F52" s="6"/>
+      <c r="G52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9">
         <f t="shared" ref="I52" si="8">AVERAGE(E52:F56)</f>
         <v>1.9999998799999998E-2</v>
       </c>
-      <c r="J52" s="26"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>1000</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="1">
+      <c r="C53" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="54"/>
+      <c r="E53" s="19">
         <v>0</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="28"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>1000</v>
       </c>
       <c r="B54" s="16"/>
-      <c r="C54" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="1">
+      <c r="C54" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="54"/>
+      <c r="E54" s="19">
         <v>0</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>1000</v>
       </c>
       <c r="B55" s="16"/>
-      <c r="C55" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="1">
+      <c r="C55" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="19">
         <v>0</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="22"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31">
         <v>1000</v>
       </c>
       <c r="B56" s="32"/>
-      <c r="C56" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="34"/>
+      <c r="C56" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="59"/>
       <c r="E56" s="35">
         <v>0</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H56" s="38"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="30"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+      <c r="A57" s="1">
         <v>10000</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21">
+      <c r="B57" s="2"/>
+      <c r="C57" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="5">
         <v>0.59999999400000004</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25">
+      <c r="F57" s="6"/>
+      <c r="G57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9">
         <f t="shared" ref="I57" si="9">AVERAGE(E57:F61)</f>
         <v>0.24000000057999998</v>
       </c>
-      <c r="J57" s="26"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>10000</v>
       </c>
       <c r="B58" s="16"/>
-      <c r="C58" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="1">
+      <c r="C58" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="54"/>
+      <c r="E58" s="19">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="28"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>10000</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="1">
+      <c r="C59" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="19">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="28"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="22"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>10000</v>
       </c>
       <c r="B60" s="16"/>
-      <c r="C60" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="1">
+      <c r="C60" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="54"/>
+      <c r="E60" s="19">
         <v>0.20000000300000001</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="28"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+      <c r="A61" s="23">
         <v>10000</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7">
+      <c r="B61" s="24"/>
+      <c r="C61" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="27">
         <v>0.10000000890000001</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="30"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="39">
         <v>10</v>
       </c>
       <c r="B62" s="40"/>
-      <c r="C62" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43">
+      <c r="C62" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="41">
         <v>0</v>
       </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="46"/>
-      <c r="I62" s="25">
+      <c r="F62" s="42"/>
+      <c r="G62" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="44"/>
+      <c r="I62" s="9">
         <f t="shared" ref="I62" si="10">AVERAGE(E62:F66)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="26"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>10</v>
       </c>
       <c r="B63" s="16"/>
-      <c r="C63" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="1">
+      <c r="C63" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="19">
         <v>0</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="28"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>10</v>
       </c>
       <c r="B64" s="16"/>
-      <c r="C64" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="1">
+      <c r="C64" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="54"/>
+      <c r="E64" s="19">
         <v>0</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="28"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>10</v>
       </c>
       <c r="B65" s="16"/>
-      <c r="C65" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="1">
+      <c r="C65" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="54"/>
+      <c r="E65" s="19">
         <v>0</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="28"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="22"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="12"/>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="31">
         <v>10</v>
       </c>
       <c r="B66" s="32"/>
-      <c r="C66" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="34"/>
+      <c r="C66" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="59"/>
       <c r="E66" s="35">
         <v>0</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66" s="38"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="30"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <v>100</v>
       </c>
       <c r="B67" s="40"/>
-      <c r="C67" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43">
+      <c r="C67" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="50"/>
+      <c r="E67" s="41">
         <v>0.1000000238</v>
       </c>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="46"/>
-      <c r="I67" s="25">
+      <c r="F67" s="42"/>
+      <c r="G67" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="9">
         <f t="shared" ref="I67" si="11">AVERAGE(E67:F71)</f>
         <v>2.0000004760000002E-2</v>
       </c>
-      <c r="J67" s="26"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>100</v>
       </c>
       <c r="B68" s="16"/>
-      <c r="C68" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="1">
+      <c r="C68" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="54"/>
+      <c r="E68" s="19">
         <v>0</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>100</v>
       </c>
       <c r="B69" s="16"/>
-      <c r="C69" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="1">
+      <c r="C69" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="54"/>
+      <c r="E69" s="19">
         <v>0</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="28"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>100</v>
       </c>
       <c r="B70" s="16"/>
-      <c r="C70" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="1">
+      <c r="C70" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="54"/>
+      <c r="E70" s="19">
         <v>0</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="28"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31">
         <v>100</v>
       </c>
       <c r="B71" s="32"/>
-      <c r="C71" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="34"/>
+      <c r="C71" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="59"/>
       <c r="E71" s="35">
         <v>0</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H71" s="38"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="30"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
+      <c r="A72" s="1">
         <v>1000</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21">
+      <c r="B72" s="2"/>
+      <c r="C72" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="5">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="25">
+      <c r="F72" s="6"/>
+      <c r="G72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="9">
         <f t="shared" ref="I72" si="12">AVERAGE(E72:F76)</f>
         <v>0.19999999998000001</v>
       </c>
-      <c r="J72" s="26"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>1000</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="1">
+      <c r="C73" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="54"/>
+      <c r="E73" s="19">
         <v>0.20000001789999999</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="28"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>1000</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="1">
+      <c r="C74" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="54"/>
+      <c r="E74" s="19">
         <v>0.29999998210000001</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="28"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>1000</v>
       </c>
       <c r="B75" s="16"/>
-      <c r="C75" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="1">
+      <c r="C75" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="19">
         <v>9.9999993999999995E-2</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="28"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="31">
         <v>1000</v>
       </c>
       <c r="B76" s="32"/>
-      <c r="C76" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="34"/>
+      <c r="C76" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="59"/>
       <c r="E76" s="35">
         <v>0.30000001189999997</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="30"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+      <c r="A77" s="1">
         <v>10000</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21">
+      <c r="B77" s="2"/>
+      <c r="C77" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="52"/>
+      <c r="E77" s="5">
         <v>10.900000006000001</v>
       </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="24"/>
-      <c r="I77" s="25">
+      <c r="F77" s="6"/>
+      <c r="G77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9">
         <f t="shared" ref="I77" si="13">AVERAGE(E77:F81)</f>
         <v>10.800000005979999</v>
       </c>
-      <c r="J77" s="26"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>10000</v>
       </c>
       <c r="B78" s="16"/>
-      <c r="C78" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="1">
+      <c r="C78" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="54"/>
+      <c r="E78" s="19">
         <v>10.700000017900001</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="12"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>10000</v>
       </c>
       <c r="B79" s="16"/>
-      <c r="C79" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="1">
+      <c r="C79" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="19">
         <v>10.6999999881</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="28"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>10000</v>
       </c>
       <c r="B80" s="16"/>
-      <c r="C80" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="1">
+      <c r="C80" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="54"/>
+      <c r="E80" s="19">
         <v>11</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="28"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
+      <c r="A81" s="23">
         <v>10000</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7">
+      <c r="B81" s="24"/>
+      <c r="C81" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="56"/>
+      <c r="E81" s="27">
         <v>10.700000017900001</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="30"/>
-    </row>
-    <row r="82" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="57"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39">
+        <v>10</v>
+      </c>
+      <c r="B82" s="40"/>
+      <c r="C82" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="50"/>
+      <c r="E82" s="41">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="F82" s="42"/>
+      <c r="G82" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="44"/>
+      <c r="I82" s="9">
+        <f>AVERAGE(E82:F86)</f>
+        <v>1.16E-3</v>
+      </c>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="15">
+        <v>10</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
+        <v>10</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
+        <v>10</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="31">
+        <v>10</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="38"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>100</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9">
+        <f>AVERAGE(E87:F91)</f>
+        <v>1.6240000000000001E-2</v>
+      </c>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
+        <v>100</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="15">
+        <v>100</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="22"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
+        <v>100</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="31">
+        <v>100</v>
+      </c>
+      <c r="B91" s="32"/>
+      <c r="C91" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="34"/>
+      <c r="E91" s="35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="38"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5">
+        <v>1.2378</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9">
+        <f t="shared" ref="I92" si="14">AVERAGE(E92:F96)</f>
+        <v>1.2416</v>
+      </c>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19">
+        <v>1.2319</v>
+      </c>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19">
+        <v>1.23</v>
+      </c>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19">
+        <v>1.2498</v>
+      </c>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="31">
+        <v>1000</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="E96" s="35">
+        <v>1.2585</v>
+      </c>
+      <c r="F96" s="36"/>
+      <c r="G96" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="38"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="14"/>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5">
+        <v>181.92009999999999</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="9">
+        <f t="shared" ref="I97" si="15">AVERAGE(E97:F101)</f>
+        <v>172.90840000000003</v>
+      </c>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19">
+        <v>173.35570000000001</v>
+      </c>
+      <c r="F98" s="20"/>
+      <c r="G98" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="19">
+        <v>171.13300000000001</v>
+      </c>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="12"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19">
+        <v>173.2294</v>
+      </c>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="23">
+        <v>10000</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="26"/>
+      <c r="E101" s="27">
+        <v>164.90379999999999</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="30"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="39">
+        <v>10</v>
+      </c>
+      <c r="B102" s="40"/>
+      <c r="C102" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="46"/>
+      <c r="E102" s="19">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="44"/>
+      <c r="I102" s="9">
+        <f t="shared" ref="I102" si="16">AVERAGE(E102:F106)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>10</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F103" s="20"/>
+      <c r="G103" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="12"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>10</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="18"/>
+      <c r="E104" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F104" s="20"/>
+      <c r="G104" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="12"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
+        <v>10</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F105" s="20"/>
+      <c r="G105" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="12"/>
+    </row>
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="31">
+        <v>10</v>
+      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="34"/>
+      <c r="E106" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F106" s="20"/>
+      <c r="G106" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="38"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39">
+        <v>100</v>
+      </c>
+      <c r="B107" s="40"/>
+      <c r="C107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="44"/>
+      <c r="I107" s="9">
+        <f t="shared" ref="I107" si="17">AVERAGE(E107:F111)</f>
+        <v>1.6220000000000002E-2</v>
+      </c>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>100</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="19">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="22"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="12"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="15">
+        <v>100</v>
+      </c>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="19">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="22"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="12"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
+        <v>100</v>
+      </c>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="19">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="22"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="12"/>
+    </row>
+    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="31">
+        <v>100</v>
+      </c>
+      <c r="B111" s="32"/>
+      <c r="C111" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="34"/>
+      <c r="E111" s="35">
+        <v>1.37E-2</v>
+      </c>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="38"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5">
+        <v>1.3202</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9">
+        <f t="shared" ref="I112" si="18">AVERAGE(E112:F116)</f>
+        <v>1.3034400000000002</v>
+      </c>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B113" s="16"/>
+      <c r="C113" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="19">
+        <v>1.2943</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="22"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="12"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="19">
+        <v>1.2870999999999999</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="22"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="12"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B115" s="16"/>
+      <c r="C115" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="19">
+        <v>1.2891999999999999</v>
+      </c>
+      <c r="F115" s="20"/>
+      <c r="G115" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="22"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="12"/>
+    </row>
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="31">
+        <v>1000</v>
+      </c>
+      <c r="B116" s="32"/>
+      <c r="C116" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="34"/>
+      <c r="E116" s="35">
+        <v>1.3264</v>
+      </c>
+      <c r="F116" s="36"/>
+      <c r="G116" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="38"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="14"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5">
+        <v>164.97149999999999</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="9">
+        <f t="shared" ref="I117" si="19">AVERAGE(E117:F121)</f>
+        <v>159.46881999999999</v>
+      </c>
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B118" s="16"/>
+      <c r="C118" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="19">
+        <v>157.29509999999999</v>
+      </c>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="22"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="12"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B119" s="16"/>
+      <c r="C119" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="19">
+        <v>160.19390000000001</v>
+      </c>
+      <c r="F119" s="20"/>
+      <c r="G119" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="22"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="12"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B120" s="16"/>
+      <c r="C120" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="19">
+        <v>160.04859999999999</v>
+      </c>
+      <c r="F120" s="20"/>
+      <c r="G120" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="22"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="12"/>
+    </row>
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="23">
+        <v>10000</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="26"/>
+      <c r="E121" s="27">
+        <v>154.83500000000001</v>
+      </c>
+      <c r="F121" s="28"/>
+      <c r="G121" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="30"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="39">
+        <v>10</v>
+      </c>
+      <c r="B122" s="40"/>
+      <c r="C122" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="46"/>
+      <c r="E122" s="41">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F122" s="42"/>
+      <c r="G122" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="44"/>
+      <c r="I122" s="9">
+        <f t="shared" ref="I122" si="20">AVERAGE(E122:F126)</f>
+        <v>1.694E-2</v>
+      </c>
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="15">
+        <v>10</v>
+      </c>
+      <c r="B123" s="16"/>
+      <c r="C123" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="15">
+        <v>10</v>
+      </c>
+      <c r="B124" s="16"/>
+      <c r="C124" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="F124" s="20"/>
+      <c r="G124" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="12"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="15">
+        <v>10</v>
+      </c>
+      <c r="B125" s="16"/>
+      <c r="C125" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="F125" s="20"/>
+      <c r="G125" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="22"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="12"/>
+    </row>
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="31">
+        <v>10</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="34"/>
+      <c r="E126" s="47">
+        <v>1E-4</v>
+      </c>
+      <c r="F126" s="48"/>
+      <c r="G126" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="38"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="39">
+        <v>100</v>
+      </c>
+      <c r="B127" s="40"/>
+      <c r="C127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="41">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F127" s="42"/>
+      <c r="G127" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="44"/>
+      <c r="I127" s="9">
+        <f t="shared" ref="I127" si="21">AVERAGE(E127:F131)</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="15">
+        <v>100</v>
+      </c>
+      <c r="B128" s="16"/>
+      <c r="C128" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F128" s="20"/>
+      <c r="G128" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="22"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="12"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="15">
+        <v>100</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="22"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="15">
+        <v>100</v>
+      </c>
+      <c r="B130" s="16"/>
+      <c r="C130" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="19">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F130" s="20"/>
+      <c r="G130" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="22"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="12"/>
+    </row>
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="31">
+        <v>100</v>
+      </c>
+      <c r="B131" s="32"/>
+      <c r="C131" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="34"/>
+      <c r="E131" s="35">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F131" s="36"/>
+      <c r="G131" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="38"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="8"/>
+      <c r="I132" s="9">
+        <f t="shared" ref="I132" si="22">AVERAGE(E132:F136)</f>
+        <v>5.9179999999999996E-2</v>
+      </c>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B133" s="16"/>
+      <c r="C133" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="19">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F133" s="20"/>
+      <c r="G133" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="22"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="12"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B134" s="16"/>
+      <c r="C134" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="19">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="F134" s="20"/>
+      <c r="G134" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="22"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="12"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B135" s="16"/>
+      <c r="C135" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="19">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="F135" s="20"/>
+      <c r="G135" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="22"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="12"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="31">
+        <v>1000</v>
+      </c>
+      <c r="B136" s="32"/>
+      <c r="C136" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="34"/>
+      <c r="E136" s="35">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F136" s="36"/>
+      <c r="G136" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" s="38"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F137" s="6"/>
+      <c r="G137" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" s="8"/>
+      <c r="I137" s="9">
+        <f t="shared" ref="I137" si="23">AVERAGE(E137:F141)</f>
+        <v>0.85595999999999994</v>
+      </c>
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B138" s="16"/>
+      <c r="C138" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="19">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="F138" s="20"/>
+      <c r="G138" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="22"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="12"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B139" s="16"/>
+      <c r="C139" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="19">
+        <v>0.8085</v>
+      </c>
+      <c r="F139" s="20"/>
+      <c r="G139" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="22"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="12"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="19">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="F140" s="20"/>
+      <c r="G140" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="12"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="23">
+        <v>10000</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="27">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="30"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="14"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="39">
+        <v>10</v>
+      </c>
+      <c r="B142" s="40"/>
+      <c r="C142" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="46"/>
+      <c r="E142" s="41">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F142" s="42"/>
+      <c r="G142" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="44"/>
+      <c r="I142" s="9">
+        <f t="shared" ref="I142" si="24">AVERAGE(E142:F146)</f>
+        <v>1.8000000000000004E-4</v>
+      </c>
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="15">
+        <v>10</v>
+      </c>
+      <c r="B143" s="16"/>
+      <c r="C143" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F143" s="20"/>
+      <c r="G143" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="22"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="15">
+        <v>10</v>
+      </c>
+      <c r="B144" s="16"/>
+      <c r="C144" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="F144" s="20"/>
+      <c r="G144" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="22"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="12"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="15">
+        <v>10</v>
+      </c>
+      <c r="B145" s="16"/>
+      <c r="C145" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="18"/>
+      <c r="E145" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="22"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="12"/>
+    </row>
+    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="31">
+        <v>10</v>
+      </c>
+      <c r="B146" s="32"/>
+      <c r="C146" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="34"/>
+      <c r="E146" s="47">
+        <v>1E-4</v>
+      </c>
+      <c r="F146" s="48"/>
+      <c r="G146" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="38"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="39">
+        <v>100</v>
+      </c>
+      <c r="B147" s="40"/>
+      <c r="C147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="41">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F147" s="42"/>
+      <c r="G147" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="44"/>
+      <c r="I147" s="9">
+        <f t="shared" ref="I147" si="25">AVERAGE(E147:F151)</f>
+        <v>5.1599999999999997E-3</v>
+      </c>
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="15">
+        <v>100</v>
+      </c>
+      <c r="B148" s="16"/>
+      <c r="C148" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="19">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F148" s="20"/>
+      <c r="G148" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="22"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="15">
+        <v>100</v>
+      </c>
+      <c r="B149" s="16"/>
+      <c r="C149" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="G149" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="22"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="12"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="15">
+        <v>100</v>
+      </c>
+      <c r="B150" s="16"/>
+      <c r="C150" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="19">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F150" s="20"/>
+      <c r="G150" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="22"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="12"/>
+    </row>
+    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="31">
+        <v>100</v>
+      </c>
+      <c r="B151" s="32"/>
+      <c r="C151" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="34"/>
+      <c r="E151" s="35">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F151" s="36"/>
+      <c r="G151" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="38"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="8"/>
+      <c r="I152" s="9">
+        <f t="shared" ref="I152" si="26">AVERAGE(E152:F156)</f>
+        <v>0.37452000000000002</v>
+      </c>
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B153" s="16"/>
+      <c r="C153" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="19">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="F153" s="20"/>
+      <c r="G153" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="22"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="12"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B154" s="16"/>
+      <c r="C154" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="19">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="F154" s="20"/>
+      <c r="G154" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="22"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="12"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B155" s="16"/>
+      <c r="C155" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="19">
+        <v>0.3649</v>
+      </c>
+      <c r="F155" s="20"/>
+      <c r="G155" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="22"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="12"/>
+    </row>
+    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="31">
+        <v>1000</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="34"/>
+      <c r="E156" s="35">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="F156" s="36"/>
+      <c r="G156" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="38"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="14"/>
+    </row>
+    <row r="157" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5">
+        <v>36.145400000000002</v>
+      </c>
+      <c r="F157" s="6"/>
+      <c r="G157" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="8"/>
+      <c r="I157" s="9">
+        <f t="shared" ref="I157" si="27">AVERAGE(E157:F161)</f>
+        <v>37.016820000000003</v>
+      </c>
+      <c r="J157" s="10"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B158" s="16"/>
+      <c r="C158" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="18"/>
+      <c r="E158" s="19">
+        <v>41.5182</v>
+      </c>
+      <c r="F158" s="20"/>
+      <c r="G158" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="22"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="12"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B159" s="16"/>
+      <c r="C159" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="19">
+        <v>35.9221</v>
+      </c>
+      <c r="F159" s="20"/>
+      <c r="G159" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="22"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="12"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B160" s="16"/>
+      <c r="C160" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="18"/>
+      <c r="E160" s="19">
+        <v>36.3947</v>
+      </c>
+      <c r="F160" s="20"/>
+      <c r="G160" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="22"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="12"/>
+    </row>
+    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="23">
+        <v>10000</v>
+      </c>
+      <c r="B161" s="24"/>
+      <c r="C161" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="26"/>
+      <c r="E161" s="27">
+        <v>35.103700000000003</v>
+      </c>
+      <c r="F161" s="28"/>
+      <c r="G161" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="30"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="14"/>
+    </row>
+    <row r="162" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="341">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J81"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J71"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="677">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I57:J61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I52:J56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="I47:J51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I42:J46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I32:J36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I27:J31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="I12:J16"/>
+    <mergeCell ref="I17:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -2986,188 +4772,477 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I22:J26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="I12:J16"/>
-    <mergeCell ref="I17:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I32:J36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I47:J51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I42:J46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I57:J61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I52:J56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J71"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J81"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J96"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:J101"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J106"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:J111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J116"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J121"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J126"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J131"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J136"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J141"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="I142:J146"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="I147:J151"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J156"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J161"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
